--- a/data/Austrian_population_statistics_1857.xlsx
+++ b/data/Austrian_population_statistics_1857.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/g_domini_uu_nl/Documents/Documents/Github/layout_parse/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_98F9F7A750A624D7F17FCAA8A8465D0260F80003" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3B410F9-C87B-4709-B160-F8DC8A8F6108}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$D$182</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,12 +39,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Giacomo Domini</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="203">
   <si>
     <t>Province</t>
   </si>
@@ -705,12 +704,15 @@
   </si>
   <si>
     <t>Totale</t>
+  </si>
+  <si>
+    <t>Number of districts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -806,7 +808,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1083,12 +1085,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,11 +3434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3D4565-599E-4598-83E6-F14579272827}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,6 +3558,167 @@
         <v>1.7374876366182204</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A10)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A11)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A12)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A13)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A15)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A16)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A17)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A18)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A19)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A20)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A22)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A23)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A24)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A25)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26">
+        <f>COUNTIFS(Foglio1!$A$2:$A$182,Sheet1!$A26)</f>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3563,6 +3726,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="849ba905-b147-4d5f-9c8c-24526156989e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A8B81505B058D246836E19FAAE35149D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4d331c3ec03db8e3d45aa8d211ccdb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="849ba905-b147-4d5f-9c8c-24526156989e" xmlns:ns4="6e1ea3c6-49aa-46a0-abdd-da3db8966731" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a8779806608e9e8be67f7791cfedb9b" ns3:_="" ns4:_="">
     <xsd:import namespace="849ba905-b147-4d5f-9c8c-24526156989e"/>
@@ -3801,24 +3981,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8404A90A-0CE2-48C6-A935-F71B07A6AD0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="849ba905-b147-4d5f-9c8c-24526156989e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6e1ea3c6-49aa-46a0-abdd-da3db8966731"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="849ba905-b147-4d5f-9c8c-24526156989e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8379095-DD4C-4016-B3B2-62A5BD86669F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{043BA20E-FC03-43B8-9ACF-B20564FC2684}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3835,29 +4023,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8379095-DD4C-4016-B3B2-62A5BD86669F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8404A90A-0CE2-48C6-A935-F71B07A6AD0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="849ba905-b147-4d5f-9c8c-24526156989e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6e1ea3c6-49aa-46a0-abdd-da3db8966731"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>